--- a/output.xlsx
+++ b/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,6 +2787,269 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AAME</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Common Stock</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Atlantic American Corporation</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Atlantic American Corporation provides life and health insurance and property and casualty products in the United States. The company is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8177</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>FINANCE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>LIFE INSURANCE</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4370 PEACHTREE RD NE, ATLANTA, GA, US</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>32146000</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2698000</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>-0.0039</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>-0.0351</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>-0.007</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>187521000</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>20364000</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>-0.784</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0.239</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0.417</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0.426</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>2.974</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>1.477</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>1.695</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>2.088</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>20399800</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="AZ13" s="2" t="n">
+        <v>45498.85622998936</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeboB\Desktop\Data Science\Code\FullStackTradingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E35683F-A7D9-4BCC-AD3E-E4805722D8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B1B672-621F-46A6-95BA-2FA9AD56420D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,344 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>AssetType</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CIK</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>FiscalYearEnd</t>
+  </si>
+  <si>
+    <t>LatestQuarter</t>
+  </si>
+  <si>
+    <t>MarketCapitalization</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>PERatio</t>
+  </si>
+  <si>
+    <t>PEGRatio</t>
+  </si>
+  <si>
+    <t>BookValue</t>
+  </si>
+  <si>
+    <t>DividendPerShare</t>
+  </si>
+  <si>
+    <t>DividendYield</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>RevenuePerShareTTM</t>
+  </si>
+  <si>
+    <t>ProfitMargin</t>
+  </si>
+  <si>
+    <t>OperatingMarginTTM</t>
+  </si>
+  <si>
+    <t>ReturnOnAssetsTTM</t>
+  </si>
+  <si>
+    <t>ReturnOnEquityTTM</t>
+  </si>
+  <si>
+    <t>RevenueTTM</t>
+  </si>
+  <si>
+    <t>GrossProfitTTM</t>
+  </si>
+  <si>
+    <t>DilutedEPSTTM</t>
+  </si>
+  <si>
+    <t>QuarterlyEarningsGrowthYOY</t>
+  </si>
+  <si>
+    <t>QuarterlyRevenueGrowthYOY</t>
+  </si>
+  <si>
+    <t>AnalystTargetPrice</t>
+  </si>
+  <si>
+    <t>AnalystRatingStrongBuy</t>
+  </si>
+  <si>
+    <t>AnalystRatingBuy</t>
+  </si>
+  <si>
+    <t>AnalystRatingHold</t>
+  </si>
+  <si>
+    <t>AnalystRatingSell</t>
+  </si>
+  <si>
+    <t>AnalystRatingStrongSell</t>
+  </si>
+  <si>
+    <t>TrailingPE</t>
+  </si>
+  <si>
+    <t>ForwardPE</t>
+  </si>
+  <si>
+    <t>PriceToSalesRatioTTM</t>
+  </si>
+  <si>
+    <t>PriceToBookRatio</t>
+  </si>
+  <si>
+    <t>EVToRevenue</t>
+  </si>
+  <si>
+    <t>EVToEBITDA</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>52WeekHigh</t>
+  </si>
+  <si>
+    <t>52WeekLow</t>
+  </si>
+  <si>
+    <t>50DayMovingAverage</t>
+  </si>
+  <si>
+    <t>200DayMovingAverage</t>
+  </si>
+  <si>
+    <t>SharesOutstanding</t>
+  </si>
+  <si>
+    <t>DividendDate</t>
+  </si>
+  <si>
+    <t>ExDividendDate</t>
+  </si>
+  <si>
+    <t>Downloaded_at_datetime</t>
+  </si>
+  <si>
+    <t>Downloaded_at_quarter</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Common Stock</t>
+  </si>
+  <si>
+    <t>Agilent Technologies Inc</t>
+  </si>
+  <si>
+    <t>Agilent Technologies, Inc. is an American analytical instrumentation development and manufacturing company that offers its products and services to markets worldwide. Its global headquarters is located in Santa Clara, California.</t>
+  </si>
+  <si>
+    <t>NYSE</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>LIFE SCIENCES</t>
+  </si>
+  <si>
+    <t>INSTRUMENTS FOR MEAS &amp; TESTING OF ELECTRICITY &amp; ELEC SIGNALS</t>
+  </si>
+  <si>
+    <t>5301 STEVENS CREEK BLVD, SANTA CLARA, CA, US</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Alcoa Corp</t>
+  </si>
+  <si>
+    <t>Alcoa Corporation produces and sells bauxite, alumina, and aluminum products in the United States, Spain, Australia, Brazil, Canada, and internationally. The company is headquartered in Pittsburgh, Pennsylvania.</t>
+  </si>
+  <si>
+    <t>1675149</t>
+  </si>
+  <si>
+    <t>MANUFACTURING</t>
+  </si>
+  <si>
+    <t>PRIMARY PRODUCTION OF ALUMINUM</t>
+  </si>
+  <si>
+    <t>201 ISABELLA STREET, SUITE 500, PITTSBURGH, PA, US</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>2024-03-31</t>
+  </si>
+  <si>
+    <t>5650784000</t>
+  </si>
+  <si>
+    <t>696000000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>-0.29</t>
+  </si>
+  <si>
+    <t>21.71</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.0121</t>
+  </si>
+  <si>
+    <t>-3.07</t>
+  </si>
+  <si>
+    <t>59.92</t>
+  </si>
+  <si>
+    <t>-0.0514</t>
+  </si>
+  <si>
+    <t>0.0441</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>-0.117</t>
+  </si>
+  <si>
+    <t>10702000000</t>
+  </si>
+  <si>
+    <t>2305000000</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>43.96</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>1.487</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>47.04</t>
+  </si>
+  <si>
+    <t>2.456</t>
+  </si>
+  <si>
+    <t>45.48</t>
+  </si>
+  <si>
+    <t>22.83</t>
+  </si>
+  <si>
+    <t>39.07</t>
+  </si>
+  <si>
+    <t>32.49</t>
+  </si>
+  <si>
+    <t>179561000</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28,13 +365,18 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -53,12 +395,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -362,191 +722,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="AM1:AM60"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM1" s="1"/>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM2" s="1"/>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <v>1090872</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2">
+        <v>41680974000</v>
+      </c>
+      <c r="O2">
+        <v>1612000000</v>
+      </c>
+      <c r="P2">
+        <v>33.93</v>
+      </c>
+      <c r="Q2">
+        <v>2.7010000000000001</v>
+      </c>
+      <c r="R2">
+        <v>21.31</v>
+      </c>
+      <c r="S2">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="T2">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="U2">
+        <v>4.21</v>
+      </c>
+      <c r="V2">
+        <v>22.53</v>
+      </c>
+      <c r="W2">
+        <v>0.188</v>
+      </c>
+      <c r="X2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="Z2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>6591000000</v>
+      </c>
+      <c r="AB2">
+        <v>3465000000</v>
+      </c>
+      <c r="AC2">
+        <v>4.21</v>
+      </c>
+      <c r="AD2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AE2">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="AF2">
+        <v>139.44</v>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
+        <v>3</v>
+      </c>
+      <c r="AI2">
+        <v>11</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>33.93</v>
+      </c>
+      <c r="AM2">
+        <v>25.64</v>
+      </c>
+      <c r="AN2">
+        <v>6.12</v>
+      </c>
+      <c r="AO2">
+        <v>6.66</v>
+      </c>
+      <c r="AP2">
+        <v>6.24</v>
+      </c>
+      <c r="AQ2">
+        <v>24.88</v>
+      </c>
+      <c r="AR2">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>155.06</v>
+      </c>
+      <c r="AT2">
+        <v>96.3</v>
+      </c>
+      <c r="AU2">
+        <v>134.46</v>
+      </c>
+      <c r="AV2">
+        <v>132.96</v>
+      </c>
+      <c r="AW2">
+        <v>291761000</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>45506.903994490742</v>
+      </c>
+      <c r="BA2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM3" s="1"/>
-    </row>
-    <row r="4" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM4" s="1"/>
-    </row>
-    <row r="5" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM5" s="1"/>
-    </row>
-    <row r="6" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM6" s="1"/>
-    </row>
-    <row r="7" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM7" s="1"/>
-    </row>
-    <row r="8" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM8" s="1"/>
-    </row>
-    <row r="9" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM9" s="1"/>
-    </row>
-    <row r="10" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM10" s="1"/>
-    </row>
-    <row r="11" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM11" s="1"/>
-    </row>
-    <row r="12" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM12" s="1"/>
-    </row>
-    <row r="13" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM13" s="1"/>
-    </row>
-    <row r="14" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM14" s="1"/>
-    </row>
-    <row r="15" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM15" s="1"/>
-    </row>
-    <row r="16" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM16" s="1"/>
-    </row>
-    <row r="17" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM17" s="1"/>
-    </row>
-    <row r="18" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM18" s="1"/>
-    </row>
-    <row r="19" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM19" s="1"/>
-    </row>
-    <row r="20" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM20" s="1"/>
-    </row>
-    <row r="21" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM21" s="1"/>
-    </row>
-    <row r="22" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM22" s="1"/>
-    </row>
-    <row r="23" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM23" s="1"/>
-    </row>
-    <row r="24" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM24" s="1"/>
-    </row>
-    <row r="25" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM25" s="1"/>
-    </row>
-    <row r="26" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM26" s="1"/>
-    </row>
-    <row r="27" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM27" s="1"/>
-    </row>
-    <row r="28" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM28" s="1"/>
-    </row>
-    <row r="29" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM29" s="1"/>
-    </row>
-    <row r="30" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM30" s="1"/>
-    </row>
-    <row r="31" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM31" s="1"/>
-    </row>
-    <row r="32" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM32" s="1"/>
-    </row>
-    <row r="33" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM33" s="1"/>
-    </row>
-    <row r="34" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM34" s="1"/>
-    </row>
-    <row r="35" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM35" s="1"/>
-    </row>
-    <row r="36" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM36" s="1"/>
-    </row>
-    <row r="37" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM37" s="1"/>
-    </row>
-    <row r="38" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM38" s="1"/>
-    </row>
-    <row r="39" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM39" s="1"/>
-    </row>
-    <row r="40" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM40" s="1"/>
-    </row>
-    <row r="41" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM41" s="1"/>
-    </row>
-    <row r="42" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM42" s="1"/>
-    </row>
-    <row r="43" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM43" s="1"/>
-    </row>
-    <row r="44" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM44" s="1"/>
-    </row>
-    <row r="45" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM45" s="1"/>
-    </row>
-    <row r="46" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM46" s="1"/>
-    </row>
-    <row r="47" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM47" s="1"/>
-    </row>
-    <row r="48" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM48" s="1"/>
-    </row>
-    <row r="49" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM49" s="1"/>
-    </row>
-    <row r="50" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM50" s="1"/>
-    </row>
-    <row r="51" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM51" s="1"/>
-    </row>
-    <row r="52" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM52" s="1"/>
-    </row>
-    <row r="53" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM53" s="1"/>
-    </row>
-    <row r="54" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM54" s="1"/>
-    </row>
-    <row r="55" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM55" s="1"/>
-    </row>
-    <row r="56" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM56" s="1"/>
-    </row>
-    <row r="57" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM57" s="1"/>
-    </row>
-    <row r="58" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM58" s="1"/>
-    </row>
-    <row r="59" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM59" s="1"/>
-    </row>
-    <row r="60" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM60" s="1"/>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>45506.904658131003</v>
+      </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeboB\Desktop\Data Science\Code\FullStackTradingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B7B0EA-48BD-4D0A-9A96-E48FAB7CE519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19298909-86C1-42B0-9FE7-D583DFF3E0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9169,8 +9169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
